--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_3.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_8</t>
+          <t>model_24_3_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9662482927982921</v>
+        <v>0.9654139060917082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7378273681436561</v>
+        <v>0.730993036892857</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0432769981380563</v>
+        <v>0.8410109792694955</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6332953307966105</v>
+        <v>0.9813625649110096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.478551651206888</v>
+        <v>0.9621481620914991</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2256978214701429</v>
+        <v>0.2312773692190665</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75314959641734</v>
+        <v>1.798850800960635</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5778825650800949</v>
+        <v>0.5904195426324059</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5050226059265539</v>
+        <v>0.4363448287003441</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5414525855033244</v>
+        <v>0.5133821856663751</v>
       </c>
       <c r="L2" t="n">
-        <v>1.468260528417771</v>
+        <v>0.9475636233465147</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4750766479949766</v>
+        <v>0.4809130578587635</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014211245137561</v>
+        <v>1.014562565856123</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4953016444443585</v>
+        <v>0.5013865223590809</v>
       </c>
       <c r="P2" t="n">
-        <v>164.9771164950614</v>
+        <v>164.9282751124261</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.7060583093856</v>
+        <v>263.6572169267504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_7</t>
+          <t>model_24_3_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9648810167054479</v>
+        <v>0.9651458070116826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7377991894899349</v>
+        <v>0.7309052554194257</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08205237602793791</v>
+        <v>0.8532901399928743</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6636378416151471</v>
+        <v>0.9831084213579757</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4883311544831991</v>
+        <v>0.9653360480456308</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2348408029987187</v>
+        <v>0.2330701490016798</v>
       </c>
       <c r="H3" t="n">
-        <v>1.753338027204523</v>
+        <v>1.799437796077667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.599360671927026</v>
+        <v>0.5448198123812459</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4632351535954441</v>
+        <v>0.3954703506056164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5312979127612352</v>
+        <v>0.4701450814934311</v>
       </c>
       <c r="L3" t="n">
-        <v>1.469679181319641</v>
+        <v>1.000632372434944</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4846037587542205</v>
+        <v>0.4827733930134093</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014786940334548</v>
+        <v>1.014675449679292</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5052343440324615</v>
+        <v>0.5033260558326846</v>
       </c>
       <c r="P3" t="n">
-        <v>164.8976948568962</v>
+        <v>164.9128316041036</v>
       </c>
       <c r="Q3" t="n">
-        <v>263.6266366712205</v>
+        <v>263.6417734184278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_9</t>
+          <t>model_24_3_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9672431164199354</v>
+        <v>0.9653384180737944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.737651864126143</v>
+        <v>0.7307627030401507</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01147095359243488</v>
+        <v>0.8292450716187036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.605241492172983</v>
+        <v>0.9797087789992766</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4684310978740318</v>
+        <v>0.9591100073570027</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2190454313314717</v>
+        <v>0.2317821579424462</v>
       </c>
       <c r="H4" t="n">
-        <v>1.754323192590571</v>
+        <v>1.800391044494272</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5602648483664334</v>
+        <v>0.6341132630032666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5436581180369529</v>
+        <v>0.4750637257436638</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5519613919488376</v>
+        <v>0.5545884943734652</v>
       </c>
       <c r="L4" t="n">
-        <v>1.467566345500753</v>
+        <v>0.8990075096039177</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4680228961615785</v>
+        <v>0.4814375950654936</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013792372033711</v>
+        <v>1.014594350284718</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4879475997921334</v>
+        <v>0.5019333902006431</v>
       </c>
       <c r="P4" t="n">
-        <v>165.0369522433561</v>
+        <v>164.9239146456289</v>
       </c>
       <c r="Q4" t="n">
-        <v>263.7658940576803</v>
+        <v>263.6528564599531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_6</t>
+          <t>model_24_3_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9630412800525339</v>
+        <v>0.9644193323665448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7374981123651232</v>
+        <v>0.7303924363927401</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1288559298335423</v>
+        <v>0.8659865181157784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6962431479774767</v>
+        <v>0.9849376871317694</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4974699416809047</v>
+        <v>0.9686530422768111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2471431304679632</v>
+        <v>0.2379280882988249</v>
       </c>
       <c r="H5" t="n">
-        <v>1.755351331324472</v>
+        <v>1.802867019270427</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6252856734139924</v>
+        <v>0.497670709065995</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4183313981512931</v>
+        <v>0.3526430700864794</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5218085357826427</v>
+        <v>0.4251568895762372</v>
       </c>
       <c r="L5" t="n">
-        <v>1.471919859812168</v>
+        <v>1.058677312429958</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4971349217948416</v>
+        <v>0.4877787288298095</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01556156629367</v>
+        <v>1.014981333740402</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5182989846268053</v>
+        <v>0.5085444791572625</v>
       </c>
       <c r="P5" t="n">
-        <v>164.795575269213</v>
+        <v>164.8715736019442</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.5245170835373</v>
+        <v>263.6005154162684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_10</t>
+          <t>model_24_3_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9679463286265781</v>
+        <v>0.9650107160591639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7373284945128469</v>
+        <v>0.7302996772078452</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01439943173564606</v>
+        <v>0.8180580846207599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5794321326641843</v>
+        <v>0.978151901384423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4582156288582079</v>
+        <v>0.9562347493248635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2143430480676576</v>
+        <v>0.2339735028232099</v>
       </c>
       <c r="H6" t="n">
-        <v>1.756485566683663</v>
+        <v>1.803487300366937</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5459349583567012</v>
+        <v>0.6756571112288403</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5792025522672118</v>
+        <v>0.5115137787105544</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5625687553119566</v>
+        <v>0.5935854449696973</v>
       </c>
       <c r="L6" t="n">
-        <v>1.467463569095441</v>
+        <v>0.8545821550593524</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4629719733068705</v>
+        <v>0.4837080760367868</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013496282683546</v>
+        <v>1.014732330080352</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4826816486946488</v>
+        <v>0.5043005302474278</v>
       </c>
       <c r="P6" t="n">
-        <v>165.0803550381705</v>
+        <v>164.9050948116687</v>
       </c>
       <c r="Q6" t="n">
-        <v>263.8092968524947</v>
+        <v>263.6340366259929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_11</t>
+          <t>model_24_3_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.968422494501095</v>
+        <v>0.9645027257912769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7369015243069845</v>
+        <v>0.7296721791220724</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03527202086646231</v>
+        <v>0.8074894331077331</v>
       </c>
       <c r="E7" t="n">
-        <v>0.555775432771268</v>
+        <v>0.9766941104742429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4480947670625288</v>
+        <v>0.9535296677800567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2111589246722212</v>
+        <v>0.2373704360836493</v>
       </c>
       <c r="H7" t="n">
-        <v>1.759340718416281</v>
+        <v>1.807683382955862</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5343734024436446</v>
+        <v>0.7149047169055844</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6117823616639573</v>
+        <v>0.5456439861101336</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5730778820538009</v>
+        <v>0.630274302172238</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46784930017142</v>
+        <v>0.8139577513138947</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4595203201951152</v>
+        <v>0.4872067693327437</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013295791789013</v>
+        <v>1.014946220719462</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4790830515640191</v>
+        <v>0.5079481701602871</v>
       </c>
       <c r="P7" t="n">
-        <v>165.1102884630366</v>
+        <v>164.8762666732874</v>
       </c>
       <c r="Q7" t="n">
-        <v>263.8392302773608</v>
+        <v>263.6052084876116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_5</t>
+          <t>model_24_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9606051275539932</v>
+        <v>0.963089740467826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7368383699256653</v>
+        <v>0.7293212934367265</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1846960870866847</v>
+        <v>0.8789586250918821</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7309725599774122</v>
+        <v>0.9868371164814381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5056069921763447</v>
+        <v>0.9720683423461883</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2634336934431557</v>
+        <v>0.2468190754477652</v>
       </c>
       <c r="H8" t="n">
-        <v>1.759763032054962</v>
+        <v>1.810029757149451</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6562161486046777</v>
+        <v>0.4494976626970122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3705023421738888</v>
+        <v>0.3081731003587664</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5133593249656474</v>
+        <v>0.3788353815278893</v>
       </c>
       <c r="L8" t="n">
-        <v>1.475159088340348</v>
+        <v>1.122304474883685</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5132579209745873</v>
+        <v>0.49680889227928</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016587314714108</v>
+        <v>1.015541161908284</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5351083732608423</v>
+        <v>0.5179590753597922</v>
       </c>
       <c r="P8" t="n">
-        <v>164.6679071609074</v>
+        <v>164.7981993976407</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.3968489752316</v>
+        <v>263.5271412119649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_12</t>
+          <t>model_24_3_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.968723622741132</v>
+        <v>0.963871030620798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7364057672826188</v>
+        <v>0.7289337984442534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05199159084644889</v>
+        <v>0.7975623392818795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5341565842131708</v>
+        <v>0.9753350573605474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4382176105405565</v>
+        <v>0.9509976332385086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2091452787445256</v>
+        <v>0.2415945845973306</v>
       </c>
       <c r="H9" t="n">
-        <v>1.762655847920966</v>
+        <v>1.812620937948368</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5251122493612758</v>
+        <v>0.7517698423677035</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6415556592324324</v>
+        <v>0.5774625166782403</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5833339542968541</v>
+        <v>0.664616133347383</v>
       </c>
       <c r="L9" t="n">
-        <v>1.468604003674848</v>
+        <v>0.7768611764916455</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4573240412929607</v>
+        <v>0.4915227203266708</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013169000951102</v>
+        <v>1.015212197633348</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4767932725220758</v>
+        <v>0.5124478601232759</v>
       </c>
       <c r="P9" t="n">
-        <v>165.1294523097735</v>
+        <v>164.8409884558377</v>
       </c>
       <c r="Q9" t="n">
-        <v>263.8583941240977</v>
+        <v>263.5699302701619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_13</t>
+          <t>model_24_3_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.96889086173776</v>
+        <v>0.963159829042366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7358684159267463</v>
+        <v>0.7281265728891365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06528919194555516</v>
+        <v>0.7882834070782965</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5144431394739511</v>
+        <v>0.9740731488957179</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4286913141029117</v>
+        <v>0.9486381754493023</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2080269508040099</v>
+        <v>0.2463503928270882</v>
       </c>
       <c r="H10" t="n">
-        <v>1.76624911891196</v>
+        <v>1.818018858952367</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5177465623517108</v>
+        <v>0.7862279633284137</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6687048505847464</v>
+        <v>0.6070066696312837</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5932257064682286</v>
+        <v>0.6966173164798487</v>
       </c>
       <c r="L10" t="n">
-        <v>1.469641314733267</v>
+        <v>0.7430203736250341</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4560997158560942</v>
+        <v>0.4963369750754907</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01309858453147</v>
+        <v>1.01551165092953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4755168250166589</v>
+        <v>0.5174670676636343</v>
       </c>
       <c r="P10" t="n">
-        <v>165.1401752730026</v>
+        <v>164.8020007908082</v>
       </c>
       <c r="Q10" t="n">
-        <v>263.8691170873269</v>
+        <v>263.5309426051324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_4</t>
+          <t>model_24_3_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9574193132507502</v>
+        <v>0.9609750093171713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7357144707147077</v>
+        <v>0.7275257516082674</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2504114752504372</v>
+        <v>0.8919996441845054</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7675164001263263</v>
+        <v>0.9887876901204931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5123135581846259</v>
+        <v>0.9755372322385261</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2847372483582672</v>
+        <v>0.2609602923896348</v>
       </c>
       <c r="H11" t="n">
-        <v>1.767278551253715</v>
+        <v>1.822036553624066</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6926166224434368</v>
+        <v>0.4010687051957357</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3201744709126374</v>
+        <v>0.2625057262626609</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5063954760754609</v>
+        <v>0.3317870379555325</v>
       </c>
       <c r="L11" t="n">
-        <v>1.479821117503231</v>
+        <v>1.192291710791527</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5336077663961304</v>
+        <v>0.5108427276468118</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01792871021021</v>
+        <v>1.016431575024349</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5563245537319678</v>
+        <v>0.532590360152964</v>
       </c>
       <c r="P11" t="n">
-        <v>164.512376919085</v>
+        <v>164.6867740393431</v>
       </c>
       <c r="Q11" t="n">
-        <v>263.2413187334092</v>
+        <v>263.4157158536673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_14</t>
+          <t>model_24_3_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9689571084540093</v>
+        <v>0.9624031846358909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7353103128981398</v>
+        <v>0.7272830862230766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07578340127764027</v>
+        <v>0.7796485961712732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.496502564053566</v>
+        <v>0.9729052760368558</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4195930747703612</v>
+        <v>0.9464480644526589</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2075839587074121</v>
+        <v>0.2514100774572141</v>
       </c>
       <c r="H12" t="n">
-        <v>1.769981156434082</v>
+        <v>1.823659258172209</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5119337047710912</v>
+        <v>0.8182940838882959</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6934124611267859</v>
+        <v>0.6343492347487854</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6026729800506252</v>
+        <v>0.7263216593185408</v>
       </c>
       <c r="L12" t="n">
-        <v>1.470875465848003</v>
+        <v>0.7122042383895827</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4556138262908755</v>
+        <v>0.5014080947264554</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013070691177259</v>
+        <v>1.015830238048046</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4750102501267188</v>
+        <v>0.5227540753768055</v>
       </c>
       <c r="P12" t="n">
-        <v>165.1444388017428</v>
+        <v>164.761339796557</v>
       </c>
       <c r="Q12" t="n">
-        <v>263.873380616067</v>
+        <v>263.4902816108812</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_15</t>
+          <t>model_24_3_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9689482645798914</v>
+        <v>0.9616271623885968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7347471721051884</v>
+        <v>0.726428085932455</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08400283456145485</v>
+        <v>0.7716443516475098</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4801994273278815</v>
+        <v>0.9718276950235395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4109736720734658</v>
+        <v>0.9444222099190384</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2076430977343614</v>
+        <v>0.2565993417981238</v>
       </c>
       <c r="H13" t="n">
-        <v>1.773746881509572</v>
+        <v>1.829376649052509</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5073808705784151</v>
+        <v>0.8480185413956413</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7158650047823332</v>
+        <v>0.6595778619939611</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6116230474667558</v>
+        <v>0.7537982016948013</v>
       </c>
       <c r="L13" t="n">
-        <v>1.472239580381004</v>
+        <v>0.6841797057745299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4556787220557499</v>
+        <v>0.5065563559942011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01307441491373</v>
+        <v>1.016156984257433</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4750779086386566</v>
+        <v>0.528121508785089</v>
       </c>
       <c r="P13" t="n">
-        <v>165.1438690987196</v>
+        <v>164.7204787837861</v>
       </c>
       <c r="Q13" t="n">
-        <v>263.8728109130438</v>
+        <v>263.4494205981103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_16</t>
+          <t>model_24_3_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9688846395742907</v>
+        <v>0.9608511759505569</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7341907451089851</v>
+        <v>0.7255802160210636</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09038101511138208</v>
+        <v>0.7642497014335496</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4654011639354815</v>
+        <v>0.9708358735227119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4028614398056631</v>
+        <v>0.9425538315394331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2080685584397786</v>
+        <v>0.2617883666823856</v>
       </c>
       <c r="H14" t="n">
-        <v>1.777467711395294</v>
+        <v>1.835046359054066</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5038479264578085</v>
+        <v>0.8754792174674406</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7362450494592998</v>
+        <v>0.6827986636125026</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6200464879585541</v>
+        <v>0.7791389045291585</v>
       </c>
       <c r="L14" t="n">
-        <v>1.473681037549623</v>
+        <v>0.6587264787513698</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4561453260089142</v>
+        <v>0.5116525839692257</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013101204389772</v>
+        <v>1.016483715389239</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4755643768881105</v>
+        <v>0.5334346937356568</v>
       </c>
       <c r="P14" t="n">
-        <v>165.139775291412</v>
+        <v>164.6804377247796</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.8687171057363</v>
+        <v>263.4093795391038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_3</t>
+          <t>model_24_3_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9532934319261498</v>
+        <v>0.9578449431834904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7339958903294674</v>
+        <v>0.7247976729511934</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3265251499153068</v>
+        <v>0.9048031693241696</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8053137146940443</v>
+        <v>0.990763477515224</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5170776953002321</v>
+        <v>0.9789953444508221</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3123270357738075</v>
+        <v>0.2818910590381882</v>
       </c>
       <c r="H15" t="n">
-        <v>1.778770706203152</v>
+        <v>1.840279228165567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7347768211552905</v>
+        <v>0.3535217021240159</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2681203251569218</v>
+        <v>0.2162480406859883</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5014485731561062</v>
+        <v>0.2848848714050021</v>
       </c>
       <c r="L15" t="n">
-        <v>1.485195807816486</v>
+        <v>1.269640914303924</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5588622690554512</v>
+        <v>0.5309341381359728</v>
       </c>
       <c r="N15" t="n">
-        <v>1.019665923399516</v>
+        <v>1.017749497606951</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5826541928535234</v>
+        <v>0.5535371035816018</v>
       </c>
       <c r="P15" t="n">
-        <v>164.3274088971183</v>
+        <v>164.532469196301</v>
       </c>
       <c r="Q15" t="n">
-        <v>263.0563507114425</v>
+        <v>263.2614110106252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_17</t>
+          <t>model_24_3_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9687822005149976</v>
+        <v>0.960089705756244</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7336496359220797</v>
+        <v>0.7247530735775017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09527905396384218</v>
+        <v>0.7574385846132493</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4519840500125082</v>
+        <v>0.9699252510075992</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3952703388358785</v>
+        <v>0.9408354123632477</v>
       </c>
       <c r="G16" t="n">
-        <v>0.20875356890096</v>
+        <v>0.266880321378004</v>
       </c>
       <c r="H16" t="n">
-        <v>1.781086111019709</v>
+        <v>1.840577464382805</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5011348490479037</v>
+        <v>0.9007728915801591</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7547229866290477</v>
+        <v>0.7041184119292802</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6279288050785905</v>
+        <v>0.8024457197673929</v>
       </c>
       <c r="L16" t="n">
-        <v>1.475154970774764</v>
+        <v>0.6356358824643061</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4568955776771756</v>
+        <v>0.5166046083592403</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013144336625264</v>
+        <v>1.016804334418424</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4763465683231247</v>
+        <v>0.5385975360560579</v>
       </c>
       <c r="P16" t="n">
-        <v>165.1332016377315</v>
+        <v>164.6419099112167</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.8621434520558</v>
+        <v>263.3708517255409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_18</t>
+          <t>model_24_3_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9686533944167268</v>
+        <v>0.9593530661390479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7331297660395311</v>
+        <v>0.7239563652045848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09899559999481644</v>
+        <v>0.7511823933252399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4398302788634898</v>
+        <v>0.9690908143705347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3882016815680609</v>
+        <v>0.9392587321254839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2096148958731947</v>
+        <v>0.2718062338901076</v>
       </c>
       <c r="H17" t="n">
-        <v>1.784562483318093</v>
+        <v>1.845905056941005</v>
       </c>
       <c r="I17" t="n">
-        <v>0.499076213462675</v>
+        <v>0.9240058015126539</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7714610586880862</v>
+        <v>0.723654475219249</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6352686360753806</v>
+        <v>0.8238301383659514</v>
       </c>
       <c r="L17" t="n">
-        <v>1.476627217258267</v>
+        <v>0.6147094137143944</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4578371936324033</v>
+        <v>0.5213503945429673</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013198570771904</v>
+        <v>1.017114498467769</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4773282708189802</v>
+        <v>0.5435453601827578</v>
       </c>
       <c r="P17" t="n">
-        <v>165.1249665219263</v>
+        <v>164.6053316839002</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.8539083362506</v>
+        <v>263.3342734982244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_19</t>
+          <t>model_24_3_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9685077282015973</v>
+        <v>0.9586483265823519</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7326351262928075</v>
+        <v>0.7231967153247785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1017710709308738</v>
+        <v>0.7454483240329091</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4288286470322138</v>
+        <v>0.9683275901196816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381646173612734</v>
+        <v>0.9378149896492266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2105889665244977</v>
+        <v>0.2765188305507608</v>
       </c>
       <c r="H18" t="n">
-        <v>1.78787014158204</v>
+        <v>1.850984839185136</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4975388496880527</v>
+        <v>0.9452997660483506</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7866124141069994</v>
+        <v>0.7415232942605096</v>
       </c>
       <c r="K18" t="n">
-        <v>0.642075631897526</v>
+        <v>0.84341153015443</v>
       </c>
       <c r="L18" t="n">
-        <v>1.478069986017574</v>
+        <v>0.5957642059757312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.458899734718269</v>
+        <v>0.5258505781595765</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013259903915117</v>
+        <v>1.017411230912694</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4784360464786345</v>
+        <v>0.5482371259325903</v>
       </c>
       <c r="P18" t="n">
-        <v>165.1156941426532</v>
+        <v>164.5709527141619</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.8446359569774</v>
+        <v>263.2998945284861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_20</t>
+          <t>model_24_3_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.968352377042862</v>
+        <v>0.9579801475807491</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7321681461568366</v>
+        <v>0.7224783355371563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1037963326231284</v>
+        <v>0.7402044450024436</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4188758232058173</v>
+        <v>0.9676306029300855</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3755860900225091</v>
+        <v>0.9364955220997239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2116278004382863</v>
+        <v>0.2809869466111605</v>
       </c>
       <c r="H19" t="n">
-        <v>1.790992839901523</v>
+        <v>1.8557886481328</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4964170350369416</v>
+        <v>0.964773366455231</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8003193599063364</v>
+        <v>0.7578413527486276</v>
       </c>
       <c r="K19" t="n">
-        <v>0.648368197471639</v>
+        <v>0.8613073886360455</v>
       </c>
       <c r="L19" t="n">
-        <v>1.479477183287942</v>
+        <v>0.5786331168771757</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4600302168752465</v>
+        <v>0.5300820187585696</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013325314929321</v>
+        <v>1.017692569439685</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4796146556014553</v>
+        <v>0.5526487077181722</v>
       </c>
       <c r="P19" t="n">
-        <v>165.1058524111887</v>
+        <v>164.5388941281369</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.834794225513</v>
+        <v>263.2678359424611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_21</t>
+          <t>model_24_3_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9681930258433508</v>
+        <v>0.9573511293602648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7317301725026071</v>
+        <v>0.7218035295022507</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1052399233040626</v>
+        <v>0.7354165051959682</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4098774310866308</v>
+        <v>0.966995000459962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3700037977153596</v>
+        <v>0.9352914567788417</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2126933826431628</v>
+        <v>0.2851931943479012</v>
       </c>
       <c r="H20" t="n">
-        <v>1.793921571744039</v>
+        <v>1.860301079195411</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4956174143349489</v>
+        <v>0.9825537969384305</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8127118703345579</v>
+        <v>0.7727222550628837</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6541646423347535</v>
+        <v>0.877638053678356</v>
       </c>
       <c r="L20" t="n">
-        <v>1.480824696459564</v>
+        <v>0.563150272415781</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4611869280922464</v>
+        <v>0.5340348250328822</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013392410171221</v>
+        <v>1.017957419216731</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4808206104096852</v>
+        <v>0.5567697931390194</v>
       </c>
       <c r="P20" t="n">
-        <v>165.095807336963</v>
+        <v>164.509176906924</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.8247491512873</v>
+        <v>263.2381187212482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_2</t>
+          <t>model_24_3_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9479879373119515</v>
+        <v>0.9567627677357343</v>
       </c>
       <c r="C21" t="n">
-        <v>0.731517384457669</v>
+        <v>0.7211732313310715</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4131815520929383</v>
+        <v>0.7310535134898107</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8434346124417056</v>
+        <v>0.9664162368205126</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5192444960623848</v>
+        <v>0.9341946270945851</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3478049026885072</v>
+        <v>0.2891275712402931</v>
       </c>
       <c r="H21" t="n">
-        <v>1.795344486380338</v>
+        <v>1.864515885968342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7827767521998694</v>
+        <v>0.998756145728445</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2156205433499287</v>
+        <v>0.7862724308197797</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4991986477748991</v>
+        <v>0.8925142882741124</v>
       </c>
       <c r="L21" t="n">
-        <v>1.490678897844621</v>
+        <v>0.5491589667990107</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5897498645091046</v>
+        <v>0.5377058408091669</v>
       </c>
       <c r="N21" t="n">
-        <v>1.021899815868652</v>
+        <v>1.018205150427059</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6148567371917758</v>
+        <v>0.5605970916569508</v>
       </c>
       <c r="P21" t="n">
-        <v>164.1122271617492</v>
+        <v>164.4817745305828</v>
       </c>
       <c r="Q21" t="n">
-        <v>262.8411689760735</v>
+        <v>263.210716344907</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_22</t>
+          <t>model_24_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9680337188187218</v>
+        <v>0.953407930990637</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7313216346006524</v>
+        <v>0.7208742983456087</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1062248505372715</v>
+        <v>0.9169174352212649</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4017462335272834</v>
+        <v>0.9927295660952984</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3648742538879481</v>
+        <v>0.9823507377834124</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2137586694503978</v>
+        <v>0.3115613800023616</v>
       </c>
       <c r="H22" t="n">
-        <v>1.796653466575554</v>
+        <v>1.866514852218591</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4950718523442602</v>
+        <v>0.3085343231375496</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8239100876619944</v>
+        <v>0.1702174264632691</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6594909700031273</v>
+        <v>0.2393758748004094</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48209993213413</v>
+        <v>1.355553742194515</v>
       </c>
       <c r="M22" t="n">
-        <v>0.462340425931367</v>
+        <v>0.5581768357808855</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01345948681317</v>
+        <v>1.0196177132671</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4820232150398868</v>
+        <v>0.581939579265417</v>
       </c>
       <c r="P22" t="n">
-        <v>165.085815226311</v>
+        <v>164.3323178272184</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.8147570406352</v>
+        <v>263.0612596415427</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_23</t>
+          <t>model_24_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9678774574944288</v>
+        <v>0.9472929675223735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7309422709083269</v>
+        <v>0.7154199305681073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.106858023606496</v>
+        <v>0.9276862686935847</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3944008838320165</v>
+        <v>0.9946384591963268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3601720282360987</v>
+        <v>0.9854725809973582</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2148035896454626</v>
+        <v>0.3524521688714578</v>
       </c>
       <c r="H23" t="n">
-        <v>1.799190273332944</v>
+        <v>1.902988234661797</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4947211308407322</v>
+        <v>0.2685433243616716</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8340260418782415</v>
+        <v>0.1255258887490739</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6643735863594868</v>
+        <v>0.197034504313792</v>
       </c>
       <c r="L23" t="n">
-        <v>1.483303466644759</v>
+        <v>1.451351364360134</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4634690816499658</v>
+        <v>0.5936768219085682</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013525281054977</v>
+        <v>1.022192434727422</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4831999199690658</v>
+        <v>0.6189508732976571</v>
       </c>
       <c r="P23" t="n">
-        <v>165.076062409832</v>
+        <v>164.085680714163</v>
       </c>
       <c r="Q23" t="n">
-        <v>263.8050042241562</v>
+        <v>262.8146225284872</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_24</t>
+          <t>model_24_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9677263783887288</v>
+        <v>0.9390279784789428</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7305913514750026</v>
+        <v>0.7080016962304823</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1072182426172025</v>
+        <v>0.9361969390025704</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3877693143671992</v>
+        <v>0.9964240548418895</v>
       </c>
       <c r="F24" t="n">
-        <v>0.355870231597515</v>
+        <v>0.9881788443682398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2158138563209341</v>
+        <v>0.4077201886616536</v>
       </c>
       <c r="H24" t="n">
-        <v>1.801536873199419</v>
+        <v>1.952594001835324</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4945216015821852</v>
+        <v>0.236938210698861</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8431589839260762</v>
+        <v>0.08372102545265607</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6688404121106118</v>
+        <v>0.1603296180757586</v>
       </c>
       <c r="L24" t="n">
-        <v>1.484434252496403</v>
+        <v>1.558191713977448</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4645576996681189</v>
+        <v>0.6385297085192306</v>
       </c>
       <c r="N24" t="n">
-        <v>1.013588893310009</v>
+        <v>1.025672430114129</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4843348827100016</v>
+        <v>0.6657132401496105</v>
       </c>
       <c r="P24" t="n">
-        <v>165.0666780382652</v>
+        <v>163.7943483039169</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.7956198525894</v>
+        <v>262.5232901182412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_1</t>
+          <t>model_24_3_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9411937532424184</v>
+        <v>0.9280157739008882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7280591530161988</v>
+        <v>0.6980595995751939</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5103640657682331</v>
+        <v>0.9412599025502882</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8804171785969708</v>
+        <v>0.9979913133000828</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5178488478182197</v>
+        <v>0.9902246620999827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3932376428458169</v>
+        <v>0.4813588513816447</v>
       </c>
       <c r="H25" t="n">
-        <v>1.818469695953142</v>
+        <v>2.019076847948384</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8366072117842752</v>
+        <v>0.218136455656448</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1646884622991031</v>
+        <v>0.04702793328604404</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5006478370416891</v>
+        <v>0.1325823160521125</v>
       </c>
       <c r="L25" t="n">
-        <v>1.495025869483668</v>
+        <v>1.676589498898258</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6270866310533314</v>
+        <v>0.6938002964698449</v>
       </c>
       <c r="N25" t="n">
-        <v>1.024760524950561</v>
+        <v>1.030309147831205</v>
       </c>
       <c r="O25" t="n">
-        <v>0.653783007185552</v>
+        <v>0.7233368114551723</v>
       </c>
       <c r="P25" t="n">
-        <v>163.8666823213772</v>
+        <v>163.4622844685338</v>
       </c>
       <c r="Q25" t="n">
-        <v>262.5956241357014</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_24_3_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9324961524103611</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7233060847112061</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.6188219460025413</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9140247068070086</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.5112076231615474</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4513985396585528</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.850253485594495</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.896683220499899</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.1184044553017179</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.5075438379008084</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.496017807664492</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6718619945037468</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.028422672669322</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.7004645505558318</v>
-      </c>
-      <c r="P26" t="n">
-        <v>163.5908092994846</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>262.3197511138088</v>
+        <v>262.1912262828581</v>
       </c>
     </row>
   </sheetData>
